--- a/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
+++ b/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
@@ -1073,8 +1073,7 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact details of the agent acting on behalf of the applicant
-</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -1206,8 +1205,7 @@
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details of the agent acting on behalf of the applicant
-</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -1475,8 +1473,7 @@
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact details for the applicant or applicants, including email and phone numbers
-</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
@@ -1608,9 +1605,7 @@
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details about the applicants for the planning application,
-including their personal information and contact details
-</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
@@ -1818,8 +1813,7 @@
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Identifies the national requirement types that apply to this application type
-</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
@@ -1853,9 +1847,7 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about any conflicts of interest between the applicant/agent and the planning authority,
-including relationships with staff or elected members
-</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1941,8 +1933,7 @@
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Declaration by the applicant or agent confirming the accuracy of the information provided
-</t>
+          <t>Signed and dated verification of the application's accuracy.</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
@@ -2028,8 +2019,7 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about any pre-application advice sought from the planning authority
-</t>
+          <t>Details of pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -2167,8 +2157,7 @@
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about what development, works or change of use is being proposed
-</t>
+          <t>What development, works or change of use is proposed</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
@@ -2292,9 +2281,7 @@
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information about the location and extent of the site where development 
-or works are proposed
-</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
@@ -2572,8 +2559,7 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Details needed to support a site visit by the planning authority
-</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -2749,9 +2735,7 @@
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information to support the application, including details of approved 
-drawings being replaced by new drawings
-</t>
+          <t>Any additional information which will help with the planning application</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">

--- a/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
+++ b/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
@@ -2019,7 +2019,7 @@
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice received from the planning authority</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">

--- a/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
+++ b/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
@@ -697,7 +697,7 @@
       <c r="E9" s="2" t="inlineStr"/>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>The name or title of the document</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">

--- a/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
+++ b/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,9 +440,10 @@
     <col width="31" customWidth="1" min="3" max="3"/>
     <col width="23" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="72" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="72" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -473,15 +474,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>field4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>description</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>datatype</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>requirement</t>
         </is>
@@ -500,22 +506,27 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="inlineStr"/>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr"/>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -526,22 +537,27 @@
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
           <t>Application types[]</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr"/>
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>A list of planning application types that define the nature of the planning application</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -552,22 +568,27 @@
       <c r="B4" s="2" t="n"/>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>Application sub type</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>Further classification of the application type for specific variations within the main application type</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -578,22 +599,27 @@
       <c r="B5" s="2" t="n"/>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>Planning authority</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr"/>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -604,22 +630,27 @@
       <c r="B6" s="2" t="n"/>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>Submission date</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>Date the application is submitted in YYYY-MM-DD format</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -630,22 +661,27 @@
       <c r="B7" s="2" t="n"/>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>Modules[]</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>List of required modules for this application that can be used to validate the application</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -656,26 +692,31 @@
       <c r="B8" s="2" t="n"/>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>Reference</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>A reference for the document</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -686,26 +727,31 @@
       <c r="B9" s="2" t="n"/>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>The name or title of the document</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -716,26 +762,31 @@
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>Brief description of what the document contains</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -746,26 +797,31 @@
       <c r="B11" s="2" t="n"/>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Document types[]</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr"/>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>List of codelist references that the document covers</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -776,30 +832,35 @@
       <c r="B12" s="2" t="n"/>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>A URL pointing to the stored file</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -810,30 +871,35 @@
       <c r="B13" s="2" t="n"/>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>Base64</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -844,30 +910,35 @@
       <c r="B14" s="2" t="n"/>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>Filename</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>Name of the file being uploaded</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -878,30 +949,35 @@
       <c r="B15" s="2" t="n"/>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>MIME type</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -912,30 +988,35 @@
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>Checksum</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -946,30 +1027,35 @@
       <c r="B17" s="2" t="n"/>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>Documents[]</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>File size</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="I17" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -980,26 +1066,31 @@
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>The total amount due for the application fee</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1010,26 +1101,31 @@
       <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>Amount paid</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>The amount paid towards the application fee</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1040,26 +1136,31 @@
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
           <t>Fee</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>Transactions[]</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1083,17 +1184,18 @@
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>A reference to an agent object</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1113,17 +1215,18 @@
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1147,17 +1250,18 @@
           <t>Phone number</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>A phone number</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1181,17 +1285,18 @@
           <t>Contact priority</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>The priority of a number</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
+      <c r="H24" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
+      <c r="I24" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1219,17 +1324,18 @@
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1253,17 +1359,18 @@
           <t>Title</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>The title of the individual</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1287,17 +1394,18 @@
           <t>First Name</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>The first name of the individual</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1321,17 +1429,18 @@
           <t>Last Name</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr">
         <is>
           <t>The last name of the individual</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1355,17 +1464,18 @@
           <t>Address Text</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
+      <c r="F29" s="2" t="inlineStr"/>
+      <c r="G29" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1389,17 +1499,18 @@
           <t>Postcode</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G30" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1419,17 +1530,18 @@
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr">
         <is>
           <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1449,17 +1561,18 @@
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr">
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr">
         <is>
           <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
-      <c r="G32" s="2" t="inlineStr">
+      <c r="H32" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H32" s="2" t="inlineStr">
+      <c r="I32" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1483,17 +1596,18 @@
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr">
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr">
         <is>
           <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1513,17 +1627,18 @@
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr">
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr">
         <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1547,17 +1662,18 @@
           <t>Phone number</t>
         </is>
       </c>
-      <c r="F35" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>A phone number</t>
         </is>
       </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1581,17 +1697,18 @@
           <t>Contact priority</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr">
         <is>
           <t>The priority of a number</t>
         </is>
       </c>
-      <c r="G36" s="2" t="inlineStr">
+      <c r="H36" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H36" s="2" t="inlineStr">
+      <c r="I36" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1619,17 +1736,18 @@
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr">
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1653,17 +1771,18 @@
           <t>Title</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr">
         <is>
           <t>The title of the individual</t>
         </is>
       </c>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1687,17 +1806,18 @@
           <t>First Name</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr">
         <is>
           <t>The first name of the individual</t>
         </is>
       </c>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1721,17 +1841,18 @@
           <t>Last Name</t>
         </is>
       </c>
-      <c r="F40" s="2" t="inlineStr">
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr">
         <is>
           <t>The last name of the individual</t>
         </is>
       </c>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1755,17 +1876,18 @@
           <t>Address Text</t>
         </is>
       </c>
-      <c r="F41" s="2" t="inlineStr">
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1789,17 +1911,18 @@
           <t>Postcode</t>
         </is>
       </c>
-      <c r="F42" s="2" t="inlineStr">
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1823,17 +1946,18 @@
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr">
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr">
         <is>
           <t>List of the document types required for the given application type</t>
         </is>
       </c>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1857,17 +1981,18 @@
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr">
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr">
         <is>
           <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
-      <c r="G44" s="2" t="inlineStr">
+      <c r="H44" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H44" s="2" t="inlineStr">
+      <c r="I44" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1883,17 +2008,18 @@
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr">
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr">
         <is>
           <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
-      <c r="G45" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1909,17 +2035,18 @@
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr">
         <is>
           <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
-      <c r="G46" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -1943,17 +2070,18 @@
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr">
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr">
         <is>
           <t>A name of a person</t>
         </is>
       </c>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1969,17 +2097,18 @@
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr">
         <is>
           <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
-      <c r="G48" s="2" t="inlineStr">
+      <c r="H48" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H48" s="2" t="inlineStr">
+      <c r="I48" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -1995,17 +2124,18 @@
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr">
         <is>
           <t>The date the declaration was made</t>
         </is>
       </c>
-      <c r="G49" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2029,17 +2159,18 @@
       </c>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="2" t="inlineStr"/>
-      <c r="F50" s="2" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr">
         <is>
           <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
-      <c r="G50" s="2" t="inlineStr">
+      <c r="H50" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H50" s="2" t="inlineStr">
+      <c r="I50" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2055,17 +2186,18 @@
       </c>
       <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="2" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr">
         <is>
           <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2081,17 +2213,18 @@
       </c>
       <c r="D52" s="2" t="inlineStr"/>
       <c r="E52" s="2" t="inlineStr"/>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr">
         <is>
           <t>A unique reference for the data item</t>
         </is>
       </c>
-      <c r="G52" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2107,17 +2240,18 @@
       </c>
       <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr">
         <is>
           <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
-      <c r="G53" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2133,17 +2267,18 @@
       </c>
       <c r="D54" s="2" t="inlineStr"/>
       <c r="E54" s="2" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr">
         <is>
           <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
-      <c r="G54" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2167,17 +2302,18 @@
       </c>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr">
         <is>
           <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
         </is>
       </c>
-      <c r="G55" s="2" t="inlineStr">
+      <c r="H55" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H55" s="2" t="inlineStr">
+      <c r="I55" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2197,17 +2333,18 @@
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr">
         <is>
           <t>The reference for the related application</t>
         </is>
       </c>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2227,17 +2364,18 @@
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr">
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr">
         <is>
           <t>A description of the related application</t>
         </is>
       </c>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2257,17 +2395,18 @@
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
-      <c r="F58" s="2" t="inlineStr">
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr">
         <is>
           <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
-      <c r="G58" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2295,17 +2434,18 @@
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr">
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr">
         <is>
           <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
-      <c r="G59" s="2" t="inlineStr">
+      <c r="H59" s="2" t="inlineStr">
         <is>
           <t>wkt</t>
         </is>
       </c>
-      <c r="H59" s="2" t="inlineStr">
+      <c r="I59" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2325,17 +2465,18 @@
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
-      <c r="F60" s="2" t="inlineStr">
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr">
         <is>
           <t>Flexible field for capturing addresses</t>
         </is>
       </c>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2355,17 +2496,18 @@
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
-      <c r="F61" s="2" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr">
         <is>
           <t>The postal code</t>
         </is>
       </c>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2385,17 +2527,18 @@
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
-      <c r="F62" s="2" t="inlineStr">
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr">
         <is>
           <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
-      <c r="G62" s="2" t="inlineStr">
+      <c r="H62" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H62" s="2" t="inlineStr">
+      <c r="I62" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2415,17 +2558,18 @@
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
-      <c r="F63" s="2" t="inlineStr">
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr">
         <is>
           <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
-      <c r="G63" s="2" t="inlineStr">
+      <c r="H63" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H63" s="2" t="inlineStr">
+      <c r="I63" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2445,17 +2589,18 @@
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
-      <c r="F64" s="2" t="inlineStr">
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr">
         <is>
           <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
-      <c r="G64" s="2" t="inlineStr">
+      <c r="H64" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H64" s="2" t="inlineStr">
+      <c r="I64" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2475,17 +2620,18 @@
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr">
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr">
         <is>
           <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
-      <c r="G65" s="2" t="inlineStr">
+      <c r="H65" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="H65" s="2" t="inlineStr">
+      <c r="I65" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2505,17 +2651,18 @@
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
-      <c r="F66" s="2" t="inlineStr">
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr">
         <is>
           <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
-      <c r="G66" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2535,17 +2682,18 @@
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="2" t="inlineStr">
+      <c r="F67" s="2" t="inlineStr"/>
+      <c r="G67" s="2" t="inlineStr">
         <is>
           <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
-      <c r="G67" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2569,17 +2717,18 @@
       </c>
       <c r="D68" s="2" t="inlineStr"/>
       <c r="E68" s="2" t="inlineStr"/>
-      <c r="F68" s="2" t="inlineStr">
+      <c r="F68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr">
         <is>
           <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
-      <c r="G68" s="2" t="inlineStr">
+      <c r="H68" s="2" t="inlineStr">
         <is>
           <t>boolean</t>
         </is>
       </c>
-      <c r="H68" s="2" t="inlineStr">
+      <c r="I68" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2595,17 +2744,18 @@
       </c>
       <c r="D69" s="2" t="inlineStr"/>
       <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="2" t="inlineStr">
+      <c r="F69" s="2" t="inlineStr"/>
+      <c r="G69" s="2" t="inlineStr">
         <is>
           <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
-      <c r="G69" s="2" t="inlineStr">
+      <c r="H69" s="2" t="inlineStr">
         <is>
           <t>enum</t>
         </is>
       </c>
-      <c r="H69" s="2" t="inlineStr">
+      <c r="I69" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2621,17 +2771,18 @@
       </c>
       <c r="D70" s="2" t="inlineStr"/>
       <c r="E70" s="2" t="inlineStr"/>
-      <c r="F70" s="2" t="inlineStr">
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr">
         <is>
           <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
-      <c r="G70" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2651,17 +2802,18 @@
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
-      <c r="F71" s="2" t="inlineStr">
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr">
         <is>
           <t>The complete name of a person</t>
         </is>
       </c>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2681,17 +2833,18 @@
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
-      <c r="F72" s="2" t="inlineStr">
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr">
         <is>
           <t>A phone number</t>
         </is>
       </c>
-      <c r="G72" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2711,17 +2864,18 @@
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
-      <c r="F73" s="2" t="inlineStr">
+      <c r="F73" s="2" t="inlineStr"/>
+      <c r="G73" s="2" t="inlineStr">
         <is>
           <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
-      <c r="G73" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2749,17 +2903,18 @@
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
-      <c r="F74" s="2" t="inlineStr">
+      <c r="F74" s="2" t="inlineStr"/>
+      <c r="G74" s="2" t="inlineStr">
         <is>
           <t>Reference of the old drawing being replaced</t>
         </is>
       </c>
-      <c r="G74" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2779,17 +2934,18 @@
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr"/>
-      <c r="F75" s="2" t="inlineStr">
+      <c r="F75" s="2" t="inlineStr"/>
+      <c r="G75" s="2" t="inlineStr">
         <is>
           <t>Reference for the new drawing that replaces the old drawing</t>
         </is>
       </c>
-      <c r="G75" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="inlineStr">
         <is>
           <t>MUST</t>
         </is>
@@ -2809,17 +2965,18 @@
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr"/>
-      <c r="F76" s="2" t="inlineStr">
+      <c r="F76" s="2" t="inlineStr"/>
+      <c r="G76" s="2" t="inlineStr">
         <is>
           <t>A textual reason</t>
         </is>
       </c>
-      <c r="G76" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
       <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>

--- a/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
+++ b/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">

--- a/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
+++ b/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
@@ -611,7 +611,7 @@
       <c r="F5" s="2" t="inlineStr"/>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">

--- a/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
+++ b/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,12 +847,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1032,22 +1032,18 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1057,7 +1053,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1076,13 +1072,13 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1111,48 +1107,48 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
+      <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1162,32 +1158,28 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1211,14 +1203,18 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1228,7 +1224,7 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1247,18 +1243,18 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1268,51 +1264,47 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1320,14 +1312,18 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1337,7 +1333,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1356,13 +1352,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1372,7 +1368,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1391,13 +1387,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1426,13 +1422,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1461,13 +1457,13 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1477,7 +1473,7 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1491,18 +1487,14 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -1526,19 +1518,19 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -1548,58 +1540,58 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1623,14 +1615,18 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
@@ -1640,7 +1636,7 @@
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1659,18 +1655,18 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -1680,51 +1676,47 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1732,14 +1724,18 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1749,7 +1745,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1768,13 +1764,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1784,7 +1780,7 @@
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1803,13 +1799,13 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1838,13 +1834,13 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1873,13 +1869,13 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -1889,32 +1885,32 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n"/>
-      <c r="B42" s="2" t="n"/>
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
@@ -1924,24 +1920,24 @@
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -1949,12 +1945,12 @@
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
@@ -1964,19 +1960,11 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A44" s="2" t="n"/>
+      <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -1984,17 +1972,17 @@
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2003,7 +1991,7 @@
       <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -2011,7 +1999,7 @@
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -2026,11 +2014,19 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -2038,7 +2034,7 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
@@ -2048,24 +2044,16 @@
       </c>
       <c r="I46" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2073,12 +2061,12 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2092,7 +2080,7 @@
       <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2100,12 +2088,12 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -2115,11 +2103,19 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -2127,12 +2123,12 @@
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
@@ -2142,19 +2138,11 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A50" s="2" t="n"/>
+      <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -2162,17 +2150,17 @@
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I50" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2169,7 @@
       <c r="B51" s="2" t="n"/>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -2189,7 +2177,7 @@
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
@@ -2208,7 +2196,7 @@
       <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -2216,7 +2204,7 @@
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
@@ -2235,7 +2223,7 @@
       <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
@@ -2243,7 +2231,7 @@
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
@@ -2258,11 +2246,19 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n"/>
-      <c r="B54" s="2" t="n"/>
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Reserved matters[]</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr"/>
@@ -2270,47 +2266,43 @@
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="2" t="n"/>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Reserved matters[]</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr"/>
+          <t>Related application</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I55" s="2" t="inlineStr">
@@ -2329,14 +2321,14 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>A description of the related application</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -2360,14 +2352,14 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>A description of the related application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
@@ -2377,33 +2369,41 @@
       </c>
       <c r="I57" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n"/>
-      <c r="B58" s="2" t="n"/>
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Related application</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
@@ -2413,16 +2413,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A59" s="2" t="n"/>
+      <c r="B59" s="2" t="n"/>
       <c r="C59" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -2430,19 +2422,19 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I59" s="2" t="inlineStr">
@@ -2461,14 +2453,14 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
@@ -2492,19 +2484,19 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I61" s="2" t="inlineStr">
@@ -2523,14 +2515,14 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -2554,14 +2546,14 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -2585,14 +2577,14 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
@@ -2616,19 +2608,19 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I65" s="2" t="inlineStr">
@@ -2647,14 +2639,14 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
@@ -2669,50 +2661,46 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n"/>
-      <c r="B67" s="2" t="n"/>
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr"/>
       <c r="E67" s="2" t="inlineStr"/>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A68" s="2" t="n"/>
+      <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr"/>
@@ -2720,12 +2708,12 @@
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
@@ -2739,7 +2727,7 @@
       <c r="B69" s="2" t="n"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr"/>
@@ -2747,17 +2735,17 @@
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2766,15 +2754,19 @@
       <c r="B70" s="2" t="n"/>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -2784,7 +2776,7 @@
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2798,14 +2790,14 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
@@ -2829,14 +2821,14 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
@@ -2851,23 +2843,31 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n"/>
-      <c r="B73" s="2" t="n"/>
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>Supporting information</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>Any additional information which will help with the planning application</t>
+        </is>
+      </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
+          <t>Replacement drawings[]</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Old drawing reference</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Reference of the old drawing being replaced</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
@@ -2882,16 +2882,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>Supporting information</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>Any additional information which will help with the planning application</t>
-        </is>
-      </c>
+      <c r="A74" s="2" t="n"/>
+      <c r="B74" s="2" t="n"/>
       <c r="C74" s="2" t="inlineStr">
         <is>
           <t>Replacement drawings[]</t>
@@ -2899,14 +2891,14 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>Old drawing reference</t>
+          <t>New drawing reference</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Reference of the old drawing being replaced</t>
+          <t>Reference for the new drawing that replaces the old drawing</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
@@ -2930,14 +2922,14 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>New drawing reference</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr"/>
       <c r="F75" s="2" t="inlineStr"/>
       <c r="G75" s="2" t="inlineStr">
         <is>
-          <t>Reference for the new drawing that replaces the old drawing</t>
+          <t>A textual reason</t>
         </is>
       </c>
       <c r="H75" s="2" t="inlineStr">
@@ -2946,37 +2938,6 @@
         </is>
       </c>
       <c r="I75" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n"/>
-      <c r="B76" s="2" t="n"/>
-      <c r="C76" s="2" t="inlineStr">
-        <is>
-          <t>Replacement drawings[]</t>
-        </is>
-      </c>
-      <c r="D76" s="2" t="inlineStr">
-        <is>
-          <t>Reason</t>
-        </is>
-      </c>
-      <c r="E76" s="2" t="inlineStr"/>
-      <c r="F76" s="2" t="inlineStr"/>
-      <c r="G76" s="2" t="inlineStr">
-        <is>
-          <t>A textual reason</t>
-        </is>
-      </c>
-      <c r="H76" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I76" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2984,32 +2945,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A43"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B2:B20"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="B50:B54"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="B43"/>
-    <mergeCell ref="A59:A67"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="B59:B67"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A50:A54"/>
-    <mergeCell ref="A68:A73"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="A58:A66"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A42"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B58:B66"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
+++ b/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,17 +964,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,22 +993,18 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr"/>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1018,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1037,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1072,48 +1068,48 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1123,32 +1119,28 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1172,14 +1164,18 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1189,7 +1185,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1208,18 +1204,18 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1229,51 +1225,47 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1281,14 +1273,18 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1298,7 +1294,7 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1317,13 +1313,13 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1333,7 +1329,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1352,13 +1348,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1387,13 +1383,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1422,13 +1418,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1438,7 +1434,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1452,18 +1448,14 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1487,19 +1479,19 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -1509,58 +1501,58 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n"/>
-      <c r="B31" s="2" t="n"/>
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A32" s="2" t="n"/>
+      <c r="B32" s="2" t="n"/>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1584,14 +1576,18 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1601,7 +1597,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1620,18 +1616,18 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -1641,51 +1637,47 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr"/>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1693,14 +1685,18 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1710,7 +1706,7 @@
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1729,13 +1725,13 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1745,7 +1741,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1764,13 +1760,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1799,13 +1795,13 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1834,13 +1830,13 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1850,32 +1846,32 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n"/>
-      <c r="B41" s="2" t="n"/>
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>Checklist</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -1885,24 +1881,24 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
@@ -1910,12 +1906,12 @@
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
@@ -1925,19 +1921,11 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>Conflict of interest</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
+      <c r="A43" s="2" t="n"/>
+      <c r="B43" s="2" t="n"/>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -1945,17 +1933,17 @@
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1952,7 @@
       <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -1972,7 +1960,7 @@
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -1987,11 +1975,19 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -1999,7 +1995,7 @@
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -2009,24 +2005,16 @@
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="2" t="n"/>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -2034,12 +2022,12 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
@@ -2053,7 +2041,7 @@
       <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2061,12 +2049,12 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2076,11 +2064,19 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2088,12 +2084,12 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -2103,19 +2099,11 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A49" s="2" t="n"/>
+      <c r="B49" s="2" t="n"/>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -2123,17 +2111,17 @@
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2142,7 +2130,7 @@
       <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -2150,7 +2138,7 @@
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -2169,7 +2157,7 @@
       <c r="B51" s="2" t="n"/>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -2177,7 +2165,7 @@
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
@@ -2196,7 +2184,7 @@
       <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -2204,7 +2192,7 @@
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
@@ -2219,11 +2207,19 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n"/>
-      <c r="B53" s="2" t="n"/>
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Reserved matters[]</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
@@ -2231,47 +2227,43 @@
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A54" s="2" t="n"/>
+      <c r="B54" s="2" t="n"/>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Reserved matters[]</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="inlineStr"/>
+          <t>Related application</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
@@ -2290,14 +2282,14 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>A description of the related application</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -2321,14 +2313,14 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>A description of the related application</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -2338,33 +2330,41 @@
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n"/>
-      <c r="B57" s="2" t="n"/>
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Related application</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
@@ -2374,16 +2374,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A58" s="2" t="n"/>
+      <c r="B58" s="2" t="n"/>
       <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -2391,19 +2383,19 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
@@ -2422,14 +2414,14 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -2453,19 +2445,19 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
@@ -2484,14 +2476,14 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -2515,14 +2507,14 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -2546,14 +2538,14 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -2577,19 +2569,19 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
@@ -2608,14 +2600,14 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -2630,50 +2622,46 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n"/>
-      <c r="B66" s="2" t="n"/>
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr"/>
       <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A67" s="2" t="n"/>
+      <c r="B67" s="2" t="n"/>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
@@ -2681,12 +2669,12 @@
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
@@ -2700,7 +2688,7 @@
       <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr"/>
@@ -2708,17 +2696,17 @@
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2727,15 +2715,19 @@
       <c r="B69" s="2" t="n"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -2745,7 +2737,7 @@
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2759,14 +2751,14 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -2790,14 +2782,14 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
@@ -2812,23 +2804,31 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n"/>
-      <c r="B72" s="2" t="n"/>
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Supporting information</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>Any additional information which will help with the planning application</t>
+        </is>
+      </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
+          <t>Replacement drawings[]</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Old drawing reference</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Reference of the old drawing being replaced</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
@@ -2843,16 +2843,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>Supporting information</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="inlineStr">
-        <is>
-          <t>Any additional information which will help with the planning application</t>
-        </is>
-      </c>
+      <c r="A73" s="2" t="n"/>
+      <c r="B73" s="2" t="n"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
           <t>Replacement drawings[]</t>
@@ -2860,14 +2852,14 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>Old drawing reference</t>
+          <t>New drawing reference</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Reference of the old drawing being replaced</t>
+          <t>Reference for the new drawing that replaces the old drawing</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
@@ -2891,14 +2883,14 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>New drawing reference</t>
+          <t>Reason</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
-          <t>Reference for the new drawing that replaces the old drawing</t>
+          <t>A textual reason</t>
         </is>
       </c>
       <c r="H74" s="2" t="inlineStr">
@@ -2907,37 +2899,6 @@
         </is>
       </c>
       <c r="I74" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n"/>
-      <c r="B75" s="2" t="n"/>
-      <c r="C75" s="2" t="inlineStr">
-        <is>
-          <t>Replacement drawings[]</t>
-        </is>
-      </c>
-      <c r="D75" s="2" t="inlineStr">
-        <is>
-          <t>Reason</t>
-        </is>
-      </c>
-      <c r="E75" s="2" t="inlineStr"/>
-      <c r="F75" s="2" t="inlineStr"/>
-      <c r="G75" s="2" t="inlineStr">
-        <is>
-          <t>A textual reason</t>
-        </is>
-      </c>
-      <c r="H75" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I75" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2945,32 +2906,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A24:A31"/>
-    <mergeCell ref="A67:A72"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B49:B53"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B42"/>
-    <mergeCell ref="A58:A66"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="B24:B31"/>
-    <mergeCell ref="A42"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="B58:B66"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B57:B65"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="B41"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A57:A65"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="A41"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A23:A30"/>
+    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
+++ b/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,27 +842,23 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -886,12 +882,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -901,7 +897,7 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -925,12 +921,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -940,7 +936,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -964,17 +960,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -993,18 +989,22 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1033,13 +1033,13 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr"/>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1068,48 +1068,48 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr"/>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1119,28 +1119,32 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1164,18 +1168,14 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr"/>
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1204,18 +1204,18 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr"/>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1225,47 +1225,51 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information if an agent is being used.</t>
-        </is>
-      </c>
+      <c r="A23" s="2" t="n"/>
+      <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="F23" s="2" t="inlineStr"/>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information if an agent is being used.</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>agent</t>
@@ -1273,18 +1277,14 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1313,13 +1313,13 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr"/>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1348,13 +1348,13 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr"/>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -1383,13 +1383,13 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr"/>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1418,13 +1418,13 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1448,14 +1448,18 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="F29" s="2" t="inlineStr"/>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -1479,19 +1483,19 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>User role</t>
+          <t>Company</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
       <c r="F30" s="2" t="inlineStr"/>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -1501,58 +1505,58 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>Telephone number and email address of the applicant.</t>
-        </is>
-      </c>
+      <c r="A31" s="2" t="n"/>
+      <c r="B31" s="2" t="n"/>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr"/>
+          <t>agent</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>User role</t>
+        </is>
+      </c>
       <c r="E31" s="2" t="inlineStr"/>
       <c r="F31" s="2" t="inlineStr"/>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Telephone number and email address of the applicant.</t>
+        </is>
+      </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="inlineStr"/>
       <c r="F32" s="2" t="inlineStr"/>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
@@ -1576,18 +1580,14 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr"/>
       <c r="F33" s="2" t="inlineStr"/>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1616,18 +1616,18 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>Contact priority</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr"/>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -1637,47 +1637,51 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>Name and contact information for the parties making the application.</t>
-        </is>
-      </c>
+      <c r="A35" s="2" t="n"/>
+      <c r="B35" s="2" t="n"/>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
+          <t>Contact details</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Contact priority</t>
+        </is>
+      </c>
       <c r="F35" s="2" t="inlineStr"/>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>Name and contact information for the parties making the application.</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Applicants[]</t>
@@ -1685,18 +1689,14 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
       <c r="F36" s="2" t="inlineStr"/>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1725,13 +1725,13 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1760,13 +1760,13 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
@@ -1795,13 +1795,13 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -1830,13 +1830,13 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
@@ -1846,32 +1846,32 @@
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Checklist</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>National requirement types[]</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr"/>
-      <c r="E41" s="2" t="inlineStr"/>
+          <t>Applicants[]</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>List of the document types required for the given application type</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
@@ -1881,24 +1881,24 @@
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>Conflict of interest</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Conflict to declare</t>
+          <t>National requirement types[]</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
@@ -1906,12 +1906,12 @@
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
+          <t>List of the document types required for the given application type</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
@@ -1921,11 +1921,19 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n"/>
-      <c r="B43" s="2" t="n"/>
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>Conflict of interest</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+        </is>
+      </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Conflict person name</t>
+          <t>Conflict to declare</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
@@ -1933,17 +1941,17 @@
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
+          <t>Indicates whether any named applicant or agent has a relationship to the planning authority that must be declared</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1960,7 @@
       <c r="B44" s="2" t="n"/>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Conflict details</t>
+          <t>Conflict person name</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
@@ -1960,7 +1968,7 @@
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
+          <t>Name of the individual with the conflict of interest that matches one of the names provided in applicants/agent section</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
@@ -1975,19 +1983,11 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
-        </is>
-      </c>
+      <c r="A45" s="2" t="n"/>
+      <c r="B45" s="2" t="n"/>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Conflict details</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
@@ -1995,7 +1995,7 @@
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Details of the conflict of interest including name, role and how the individual is related to the planning authority</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
@@ -2005,16 +2005,24 @@
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Declaration</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
@@ -2022,12 +2030,12 @@
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>A name of a person</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I46" s="2" t="inlineStr">
@@ -2041,7 +2049,7 @@
       <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
@@ -2049,12 +2057,12 @@
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I47" s="2" t="inlineStr">
@@ -2064,19 +2072,11 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
-        </is>
-      </c>
+      <c r="A48" s="2" t="n"/>
+      <c r="B48" s="2" t="n"/>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
@@ -2084,12 +2084,12 @@
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr">
@@ -2099,11 +2099,19 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Pre-application advice sought</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
@@ -2111,17 +2119,17 @@
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I49" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2138,7 @@
       <c r="B50" s="2" t="n"/>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr"/>
@@ -2138,7 +2146,7 @@
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr">
@@ -2157,7 +2165,7 @@
       <c r="B51" s="2" t="n"/>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr"/>
@@ -2165,7 +2173,7 @@
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr">
@@ -2184,7 +2192,7 @@
       <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr"/>
@@ -2192,7 +2200,7 @@
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr">
@@ -2207,19 +2215,11 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
+      <c r="A53" s="2" t="n"/>
+      <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Reserved matters[]</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr"/>
@@ -2227,43 +2227,47 @@
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I53" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n"/>
-      <c r="B54" s="2" t="n"/>
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Related application</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Reserved matters[]</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr"/>
       <c r="E54" s="2" t="inlineStr"/>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>The reference for the related application</t>
+          <t>Identifies which reserved matters are being submitted for approval as part of this application</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I54" s="2" t="inlineStr">
@@ -2282,14 +2286,14 @@
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>A description of the related application</t>
+          <t>The reference for the related application</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr">
@@ -2313,14 +2317,14 @@
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>Decision date</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>The date when the decision was made, in YYYY-MM-DD format</t>
+          <t>A description of the related application</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr">
@@ -2330,41 +2334,33 @@
       </c>
       <c r="I56" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>Where the proposed development will be built.</t>
-        </is>
-      </c>
+      <c r="A57" s="2" t="n"/>
+      <c r="B57" s="2" t="n"/>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Related application</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Decision date</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>The date when the decision was made, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I57" s="2" t="inlineStr">
@@ -2374,8 +2370,16 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n"/>
-      <c r="B58" s="2" t="n"/>
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Where the proposed development will be built.</t>
+        </is>
+      </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Site locations[]</t>
@@ -2383,19 +2387,19 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="I58" s="2" t="inlineStr">
@@ -2414,14 +2418,14 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr">
@@ -2445,19 +2449,19 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I60" s="2" t="inlineStr">
@@ -2476,14 +2480,14 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr">
@@ -2507,14 +2511,14 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr">
@@ -2538,14 +2542,14 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr">
@@ -2569,19 +2573,19 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="I64" s="2" t="inlineStr">
@@ -2600,14 +2604,14 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr">
@@ -2622,46 +2626,50 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
+      <c r="A66" s="2" t="n"/>
+      <c r="B66" s="2" t="n"/>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>UPRNs[]</t>
+        </is>
+      </c>
       <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="I66" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n"/>
-      <c r="B67" s="2" t="n"/>
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>Information to help the planning authority arrange a site visit</t>
+        </is>
+      </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Site seen from public area</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr"/>
@@ -2669,12 +2677,12 @@
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="H67" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="I67" s="2" t="inlineStr">
@@ -2688,7 +2696,7 @@
       <c r="B68" s="2" t="n"/>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr"/>
@@ -2696,17 +2704,17 @@
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="H68" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="I68" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2715,19 +2723,15 @@
       <c r="B69" s="2" t="n"/>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr"/>
       <c r="E69" s="2" t="inlineStr"/>
       <c r="F69" s="2" t="inlineStr"/>
       <c r="G69" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="H69" s="2" t="inlineStr">
@@ -2737,7 +2741,7 @@
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2751,14 +2755,14 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="H70" s="2" t="inlineStr">
@@ -2782,14 +2786,14 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
       <c r="G71" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="H71" s="2" t="inlineStr">
@@ -2804,31 +2808,23 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>Supporting information</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>Any additional information which will help with the planning application</t>
-        </is>
-      </c>
+      <c r="A72" s="2" t="n"/>
+      <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>Replacement drawings[]</t>
+          <t>Other site visit contact</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>Old drawing reference</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
       <c r="F72" s="2" t="inlineStr"/>
       <c r="G72" s="2" t="inlineStr">
         <is>
-          <t>Reference of the old drawing being replaced</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="H72" s="2" t="inlineStr">
@@ -2843,8 +2839,16 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n"/>
-      <c r="B73" s="2" t="n"/>
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>Supporting information</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>Any additional information which will help with the planning application</t>
+        </is>
+      </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
           <t>Replacement drawings[]</t>
@@ -2852,14 +2856,14 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>New drawing reference</t>
+          <t>Old drawing reference</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr">
         <is>
-          <t>Reference for the new drawing that replaces the old drawing</t>
+          <t>Reference of the old drawing being replaced</t>
         </is>
       </c>
       <c r="H73" s="2" t="inlineStr">
@@ -2883,22 +2887,53 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>Reason</t>
+          <t>New drawing reference</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr">
         <is>
+          <t>Reference for the new drawing that replaces the old drawing</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n"/>
+      <c r="B75" s="2" t="n"/>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>Replacement drawings[]</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>Reason</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr"/>
+      <c r="F75" s="2" t="inlineStr"/>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
           <t>A textual reason</t>
         </is>
       </c>
-      <c r="H74" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="I74" s="2" t="inlineStr">
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -2906,32 +2941,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B57:B65"/>
-    <mergeCell ref="B66:B71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="B41"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A57:A65"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="A41"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A23:A30"/>
-    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A24:A31"/>
+    <mergeCell ref="A67:A72"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B49:B53"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="A49:A53"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B42"/>
+    <mergeCell ref="A58:A66"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="B24:B31"/>
+    <mergeCell ref="A42"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="B58:B66"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
+++ b/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
@@ -708,7 +708,7 @@
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">

--- a/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
+++ b/generated/spreadsheet/reserved-matters-reserved-matters.xlsx
@@ -647,7 +647,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
